--- a/HyPAT/datafiles/o-ring_data.xlsx
+++ b/HyPAT/datafiles/o-ring_data.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0496E4EFA0A0FC40CC114922008FD6D8BFD79C6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>O-ring type</t>
-  </si>
-  <si>
-    <t>O-ring Outer Diameter: D_samp [mm]</t>
-  </si>
-  <si>
-    <t>O-ring  Inner Diameter: d_samp [mm]</t>
-  </si>
-  <si>
-    <t>O-ring Thickness: x_samp [mm]</t>
-  </si>
-  <si>
-    <t>20mm Gold wire ring</t>
-  </si>
-  <si>
-    <t>20mm C or CSI ring</t>
-  </si>
-  <si>
-    <t>1.33" CF Cu gasket</t>
-  </si>
-  <si>
-    <t>1/2 VCR</t>
-  </si>
-  <si>
-    <t>1/4 VCR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,94 +420,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>O-ring type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>O-ring Outer Diameter: D_samp [mm]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>O-ring  Inner Diameter: d_samp [mm]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O-ring Thickness: x_samp [mm]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>20mm C or CSI ring</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.33" CF Cu gasket</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1/2 VCR</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>19.8</v>
       </c>
-      <c r="C2">
-        <v>17.88</v>
-      </c>
-      <c r="D2">
+      <c r="C4" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C3">
-        <v>16.48</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>21.26</v>
-      </c>
-      <c r="C4">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>19.8</v>
-      </c>
-      <c r="C5">
-        <v>11.2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1/4 VCR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>11.9</v>
       </c>
-      <c r="C6">
+      <c r="C5" t="n">
         <v>5.6</v>
       </c>
-      <c r="D6">
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -511,21 +525,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e31427f38a75fcdd1783218c0384377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35bb6df2db9f156dbe836cf6fb196ff8" ns2:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
@@ -683,14 +682,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D8595B-3B0E-449A-8859-9DAD59AA8ED6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB26B7EA-6616-4A77-BA71-29C9B529F6A8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767FE347-6AD3-4792-A547-45148B681406}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB701508-C028-492A-8908-E018B2EAAE42}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A002A6BB-870B-4A60-A06B-20F75A1D856E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7955467-4BB5-4F45-B620-F8D2EEEEECA1}"/>
 </file>
--- a/HyPAT/datafiles/o-ring_data.xlsx
+++ b/HyPAT/datafiles/o-ring_data.xlsx
@@ -525,9 +525,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e31427f38a75fcdd1783218c0384377">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35bb6df2db9f156dbe836cf6fb196ff8" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34b5283cf4dfffaff109746742aa09de">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" xmlns:ns3="ca77b916-f394-4de9-b274-c15ee8638632" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="898ab104950e04c568cc6a94d04fd6c3" ns2:_="" ns3:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
+    <xsd:import namespace="ca77b916-f394-4de9-b274-c15ee8638632"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -540,6 +541,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -581,6 +584,28 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0b78db39-37aa-4e28-bb7e-9642684d42d7" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca77b916-f394-4de9-b274-c15ee8638632" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9bdfb1f9-b4f9-4545-a4bc-c42b1cd3b611}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2d7da570-499c-4ae8-bbfb-bca14132ce0c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -693,12 +718,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa8bfe3d-3fd0-41f5-9c33-87c45324e297">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ca77b916-f394-4de9-b274-c15ee8638632" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB26B7EA-6616-4A77-BA71-29C9B529F6A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97368B16-786A-4329-97D7-FF3DB385EDD0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
